--- a/workingfolder/OtherData/UCSVestQ.xlsx
+++ b/workingfolder/OtherData/UCSVestQ.xlsx
@@ -13,7 +13,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Inf1y_CPICore</t>
+  </si>
+  <si>
+    <t>sd_eps</t>
+  </si>
+  <si>
+    <t>sd_eta</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Inf1y_CPICore</t>
+  </si>
+  <si>
+    <t>sd_eps</t>
+  </si>
+  <si>
+    <t>sd_eta</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Inf1y_CPICore</t>
+  </si>
+  <si>
+    <t>sd_eps</t>
+  </si>
+  <si>
+    <t>sd_eta</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Inf1y_CPICore</t>
+  </si>
+  <si>
+    <t>sd_eps</t>
+  </si>
+  <si>
+    <t>sd_eta</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -90,7 +150,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E114"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="true"/>
@@ -102,1821 +162,1940 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>34700</v>
       </c>
       <c r="B2" s="0">
         <v>2.9620029926300049</v>
       </c>
       <c r="C2" s="0">
-        <v>0.10736588536083676</v>
+        <v>0.10720547182764599</v>
       </c>
       <c r="D2" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E2" s="0">
-        <v>2.9806584133260987</v>
+        <v>2.9786839508981395</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>34790</v>
       </c>
       <c r="B3" s="0">
         <v>3.0051229000091548</v>
       </c>
       <c r="C3" s="0">
-        <v>0.10865429190067696</v>
+        <v>0.10776025167327916</v>
       </c>
       <c r="D3" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E3" s="0">
-        <v>2.9883852844452474</v>
+        <v>2.9848922656451236</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>34881</v>
       </c>
       <c r="B4" s="0">
         <v>2.984125137329102</v>
       </c>
       <c r="C4" s="0">
-        <v>0.10980451238025699</v>
+        <v>0.1100331477774277</v>
       </c>
       <c r="D4" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E4" s="0">
-        <v>2.9721572944391896</v>
+        <v>2.9726510656250498</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>34973</v>
       </c>
       <c r="B5" s="0">
         <v>3.0322191715240479</v>
       </c>
       <c r="C5" s="0">
-        <v>0.11194342450590306</v>
+        <v>0.11192658965250599</v>
       </c>
       <c r="D5" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E5" s="0">
-        <v>2.9519076659972154</v>
+        <v>2.9486774044114292</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>35065</v>
       </c>
       <c r="B6" s="0">
         <v>2.8142590522766109</v>
       </c>
       <c r="C6" s="0">
-        <v>0.11451771986293365</v>
+        <v>0.11406584423812978</v>
       </c>
       <c r="D6" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E6" s="0">
-        <v>2.8234756425521264</v>
+        <v>2.8247828273314362</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>35156</v>
       </c>
       <c r="B7" s="0">
         <v>2.6691420078277588</v>
       </c>
       <c r="C7" s="0">
-        <v>0.11666307422750807</v>
+        <v>0.11637799996832815</v>
       </c>
       <c r="D7" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E7" s="0">
-        <v>2.7102374703973053</v>
+        <v>2.7106412555588451</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>35247</v>
       </c>
       <c r="B8" s="0">
         <v>2.6510500907897949</v>
       </c>
       <c r="C8" s="0">
-        <v>0.1180713711311101</v>
+        <v>0.11680590486883849</v>
       </c>
       <c r="D8" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E8" s="0">
-        <v>2.652955471006428</v>
+        <v>2.6519235996663033</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>35339</v>
       </c>
       <c r="B9" s="0">
         <v>2.6364119052886958</v>
       </c>
       <c r="C9" s="0">
-        <v>0.11969767336127524</v>
+        <v>0.11781828691272139</v>
       </c>
       <c r="D9" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E9" s="0">
-        <v>2.5929327256854862</v>
+        <v>2.5925757104730316</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>35431</v>
       </c>
       <c r="B10" s="0">
         <v>2.4330902099609379</v>
       </c>
       <c r="C10" s="0">
-        <v>0.12078813235638144</v>
+        <v>0.11969441391035332</v>
       </c>
       <c r="D10" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E10" s="0">
-        <v>2.4691391091277839</v>
+        <v>2.4709893716214779</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>35521</v>
       </c>
       <c r="B11" s="0">
         <v>2.4183797836303711</v>
       </c>
       <c r="C11" s="0">
-        <v>0.12136501510364495</v>
+        <v>0.11991983430698828</v>
       </c>
       <c r="D11" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E11" s="0">
-        <v>2.3965795369986758</v>
+        <v>2.4005354270405599</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>35612</v>
       </c>
       <c r="B12" s="0">
         <v>2.2222204208374019</v>
       </c>
       <c r="C12" s="0">
-        <v>0.12262973923924589</v>
+        <v>0.1207674300078815</v>
       </c>
       <c r="D12" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E12" s="0">
-        <v>2.2904533163090139</v>
+        <v>2.2924376046589794</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>35704</v>
       </c>
       <c r="B13" s="0">
         <v>2.270013809204102</v>
       </c>
       <c r="C13" s="0">
-        <v>0.12279539480648072</v>
+        <v>0.12108744447355385</v>
       </c>
       <c r="D13" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E13" s="0">
-        <v>2.2781210189197401</v>
+        <v>2.2781512755708553</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>35796</v>
       </c>
       <c r="B14" s="0">
         <v>2.2565338611602779</v>
       </c>
       <c r="C14" s="0">
-        <v>0.1232551828955008</v>
+        <v>0.12361358571305242</v>
       </c>
       <c r="D14" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E14" s="0">
-        <v>2.2694801643805058</v>
+        <v>2.2678690222491298</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>35886</v>
       </c>
       <c r="B15" s="0">
         <v>2.2432131767272949</v>
       </c>
       <c r="C15" s="0">
-        <v>0.12562781006369453</v>
+        <v>0.12572551635613766</v>
       </c>
       <c r="D15" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E15" s="0">
-        <v>2.2707306206766309</v>
+        <v>2.2704910175464206</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>35977</v>
       </c>
       <c r="B16" s="0">
         <v>2.350176334381104</v>
       </c>
       <c r="C16" s="0">
-        <v>0.12871054070172</v>
+        <v>0.12804269543067673</v>
       </c>
       <c r="D16" s="0">
-        <v>0.1002392263302601</v>
+        <v>0.10049906312962073</v>
       </c>
       <c r="E16" s="0">
-        <v>2.3177101601590984</v>
+        <v>2.3122880582558802</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>36069</v>
       </c>
       <c r="B17" s="0">
         <v>2.453269243240356</v>
       </c>
       <c r="C17" s="0">
-        <v>0.13237773103869011</v>
+        <v>0.13215661586979127</v>
       </c>
       <c r="D17" s="0">
-        <v>0.10286862251103457</v>
+        <v>0.10320404848322934</v>
       </c>
       <c r="E17" s="0">
-        <v>2.3178292417373596</v>
+        <v>2.3175652081816165</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>36161</v>
       </c>
       <c r="B18" s="0">
         <v>2.0325202941894531</v>
       </c>
       <c r="C18" s="0">
-        <v>0.13748941246713808</v>
+        <v>0.13627286241642483</v>
       </c>
       <c r="D18" s="0">
-        <v>0.10434641410009887</v>
+        <v>0.10481543746996388</v>
       </c>
       <c r="E18" s="0">
-        <v>2.1164517058741232</v>
+        <v>2.1150687988159698</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>36251</v>
       </c>
       <c r="B19" s="0">
         <v>1.963053822517395</v>
       </c>
       <c r="C19" s="0">
-        <v>0.1396264323186576</v>
+        <v>0.13855803313515427</v>
       </c>
       <c r="D19" s="0">
-        <v>0.10533767693281129</v>
+        <v>0.10629638726896989</v>
       </c>
       <c r="E19" s="0">
-        <v>2.0375448866749486</v>
+        <v>2.0390304173728895</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>36342</v>
       </c>
       <c r="B20" s="0">
         <v>2.0665936470031738</v>
       </c>
       <c r="C20" s="0">
-        <v>0.14286110671461338</v>
+        <v>0.14103811655207632</v>
       </c>
       <c r="D20" s="0">
-        <v>0.10705887656201422</v>
+        <v>0.10715154328019005</v>
       </c>
       <c r="E20" s="0">
-        <v>2.0619726788308954</v>
+        <v>2.0657308936339778</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>36434</v>
       </c>
       <c r="B21" s="0">
         <v>1.8814157247543331</v>
       </c>
       <c r="C21" s="0">
-        <v>0.14640177912661034</v>
+        <v>0.14516043747139928</v>
       </c>
       <c r="D21" s="0">
-        <v>0.10836058724656857</v>
+        <v>0.10846970376083774</v>
       </c>
       <c r="E21" s="0">
-        <v>2.0588484166801537</v>
+        <v>2.058239724517728</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>36526</v>
       </c>
       <c r="B22" s="0">
         <v>2.4473552703857422</v>
       </c>
       <c r="C22" s="0">
-        <v>0.15196928800789866</v>
+        <v>0.14986149911256358</v>
       </c>
       <c r="D22" s="0">
-        <v>0.10724529935745214</v>
+        <v>0.10750979954045362</v>
       </c>
       <c r="E22" s="0">
-        <v>2.3548124497244776</v>
+        <v>2.3560091311917253</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>36617</v>
       </c>
       <c r="B23" s="0">
         <v>2.5481312274932861</v>
       </c>
       <c r="C23" s="0">
-        <v>0.15393341895188561</v>
+        <v>0.15192403123359066</v>
       </c>
       <c r="D23" s="0">
-        <v>0.10581799103169932</v>
+        <v>0.1070238738318133</v>
       </c>
       <c r="E23" s="0">
-        <v>2.491460340679343</v>
+        <v>2.4853536475877265</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>36708</v>
       </c>
       <c r="B24" s="0">
         <v>2.5309336185455318</v>
       </c>
       <c r="C24" s="0">
-        <v>0.15475016442629219</v>
+        <v>0.15228849138405404</v>
       </c>
       <c r="D24" s="0">
-        <v>0.10417672468686112</v>
+        <v>0.10500065599041414</v>
       </c>
       <c r="E24" s="0">
-        <v>2.5301324047228642</v>
+        <v>2.5287426334735601</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>36800</v>
       </c>
       <c r="B25" s="0">
         <v>2.5741500854492192</v>
       </c>
       <c r="C25" s="0">
-        <v>0.15709643062401668</v>
+        <v>0.15460649685291178</v>
       </c>
       <c r="D25" s="0">
-        <v>0.10384822655039785</v>
+        <v>0.10438886243626072</v>
       </c>
       <c r="E25" s="0">
-        <v>2.5710976433595816</v>
+        <v>2.5722022107796603</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>36892</v>
       </c>
       <c r="B26" s="0">
         <v>2.6111094951629639</v>
       </c>
       <c r="C26" s="0">
-        <v>0.1599923471206586</v>
+        <v>0.15800243874393943</v>
       </c>
       <c r="D26" s="0">
-        <v>0.10485365036990522</v>
+        <v>0.10411768205251913</v>
       </c>
       <c r="E26" s="0">
-        <v>2.6141737293795781</v>
+        <v>2.6095113273620658</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>36982</v>
       </c>
       <c r="B27" s="0">
         <v>2.7056839466094971</v>
       </c>
       <c r="C27" s="0">
-        <v>0.16424636374319601</v>
+        <v>0.16312149903252793</v>
       </c>
       <c r="D27" s="0">
-        <v>0.10426881471834523</v>
+        <v>0.10505834389166341</v>
       </c>
       <c r="E27" s="0">
-        <v>2.6676933740965603</v>
+        <v>2.6688669322020613</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>37073</v>
       </c>
       <c r="B28" s="0">
         <v>2.6330242156982422</v>
       </c>
       <c r="C28" s="0">
-        <v>0.16979725299926013</v>
+        <v>0.16877163995271835</v>
       </c>
       <c r="D28" s="0">
-        <v>0.10503308686703891</v>
+        <v>0.10488555755789769</v>
       </c>
       <c r="E28" s="0">
-        <v>2.646706839622103</v>
+        <v>2.6488076711470021</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>37165</v>
       </c>
       <c r="B29" s="0">
         <v>2.782319068908691</v>
       </c>
       <c r="C29" s="0">
-        <v>0.17677629652476615</v>
+        <v>0.17697502246392205</v>
       </c>
       <c r="D29" s="0">
-        <v>0.10524121677344592</v>
+        <v>0.10567479674494937</v>
       </c>
       <c r="E29" s="0">
-        <v>2.6821741176101033</v>
+        <v>2.6781612781369208</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>37257</v>
       </c>
       <c r="B30" s="0">
         <v>2.4363832473754878</v>
       </c>
       <c r="C30" s="0">
-        <v>0.18633530249843</v>
+        <v>0.18582598782720131</v>
       </c>
       <c r="D30" s="0">
-        <v>0.10505574494933559</v>
+        <v>0.10509768831734462</v>
       </c>
       <c r="E30" s="0">
-        <v>2.4598809759885376</v>
+        <v>2.4581767086061337</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>37347</v>
       </c>
       <c r="B31" s="0">
         <v>2.2580628395080571</v>
       </c>
       <c r="C31" s="0">
-        <v>0.19378057018706057</v>
+        <v>0.19256917723737815</v>
       </c>
       <c r="D31" s="0">
-        <v>0.10575650497851832</v>
+        <v>0.10587548411808741</v>
       </c>
       <c r="E31" s="0">
-        <v>2.2886777772688176</v>
+        <v>2.288494400630591</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>37438</v>
       </c>
       <c r="B32" s="0">
         <v>2.244787216186523</v>
       </c>
       <c r="C32" s="0">
-        <v>0.20059873457827526</v>
+        <v>0.200141254875395</v>
       </c>
       <c r="D32" s="0">
-        <v>0.10629965645390357</v>
+        <v>0.10568417699713087</v>
       </c>
       <c r="E32" s="0">
-        <v>2.2009696834918602</v>
+        <v>2.2011824539173581</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>37530</v>
       </c>
       <c r="B33" s="0">
         <v>1.9639130830764771</v>
       </c>
       <c r="C33" s="0">
-        <v>0.20917717359990196</v>
+        <v>0.20986602617756867</v>
       </c>
       <c r="D33" s="0">
-        <v>0.10757686258437332</v>
+        <v>0.10599075307119873</v>
       </c>
       <c r="E33" s="0">
-        <v>1.9703397985104401</v>
+        <v>1.9685868055076896</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>37622</v>
       </c>
       <c r="B34" s="0">
         <v>1.744187712669373</v>
       </c>
       <c r="C34" s="0">
-        <v>0.21753526461944589</v>
+        <v>0.21608688135411178</v>
       </c>
       <c r="D34" s="0">
-        <v>0.10826109326956265</v>
+        <v>0.10637556088762276</v>
       </c>
       <c r="E34" s="0">
-        <v>1.7436604736554839</v>
+        <v>1.744150957832967</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>37712</v>
       </c>
       <c r="B35" s="0">
         <v>1.472136259078979</v>
       </c>
       <c r="C35" s="0">
-        <v>0.2232027418469931</v>
+        <v>0.222671934857118</v>
       </c>
       <c r="D35" s="0">
-        <v>0.10920973673049371</v>
+        <v>0.1079754277600149</v>
       </c>
       <c r="E35" s="0">
-        <v>1.4942741910028896</v>
+        <v>1.4942511425737259</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>37803</v>
       </c>
       <c r="B36" s="0">
         <v>1.2545707225799561</v>
       </c>
       <c r="C36" s="0">
-        <v>0.22747161554169321</v>
+        <v>0.22765250581983101</v>
       </c>
       <c r="D36" s="0">
-        <v>0.11064293523491633</v>
+        <v>0.10911534665506842</v>
       </c>
       <c r="E36" s="0">
-        <v>1.2980755519459608</v>
+        <v>1.2986433108788895</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>37895</v>
       </c>
       <c r="B37" s="0">
         <v>1.093175888061523</v>
       </c>
       <c r="C37" s="0">
-        <v>0.2306236525570039</v>
+        <v>0.23060637324725147</v>
       </c>
       <c r="D37" s="0">
-        <v>0.11243768366804424</v>
+        <v>0.11040357649703096</v>
       </c>
       <c r="E37" s="0">
-        <v>1.2132481000793613</v>
+        <v>1.2124536876523386</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>37987</v>
       </c>
       <c r="B38" s="0">
         <v>1.5584415197372441</v>
       </c>
       <c r="C38" s="0">
-        <v>0.23470177263991637</v>
+        <v>0.23542864281172693</v>
       </c>
       <c r="D38" s="0">
-        <v>0.11259017155547543</v>
+        <v>0.11070656578285581</v>
       </c>
       <c r="E38" s="0">
-        <v>1.5493828897784661</v>
+        <v>1.5495713619988867</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>38078</v>
       </c>
       <c r="B39" s="0">
         <v>1.865288138389587</v>
       </c>
       <c r="C39" s="0">
-        <v>0.23645737085346297</v>
+        <v>0.23750604800682606</v>
       </c>
       <c r="D39" s="0">
-        <v>0.11279875348108565</v>
+        <v>0.11129080268760799</v>
       </c>
       <c r="E39" s="0">
-        <v>1.8298221753178039</v>
+        <v>1.8294797929651914</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>38169</v>
       </c>
       <c r="B40" s="0">
         <v>1.9617981910705571</v>
       </c>
       <c r="C40" s="0">
-        <v>0.23362146537969572</v>
+        <v>0.2360717033952236</v>
       </c>
       <c r="D40" s="0">
-        <v>0.11385445987599517</v>
+        <v>0.11176978559839784</v>
       </c>
       <c r="E40" s="0">
-        <v>1.981897520605655</v>
+        <v>1.9799414329171436</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>38261</v>
       </c>
       <c r="B41" s="0">
         <v>2.2657101154327388</v>
       </c>
       <c r="C41" s="0">
-        <v>0.23444135005524908</v>
+        <v>0.23567764323515061</v>
       </c>
       <c r="D41" s="0">
-        <v>0.11476390741590187</v>
+        <v>0.11226857714637786</v>
       </c>
       <c r="E41" s="0">
-        <v>2.2080398110713046</v>
+        <v>2.211421555181341</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>38353</v>
       </c>
       <c r="B42" s="0">
         <v>2.3529443740844731</v>
       </c>
       <c r="C42" s="0">
-        <v>0.23164674168790991</v>
+        <v>0.23320766358463429</v>
       </c>
       <c r="D42" s="0">
-        <v>0.11543683373771622</v>
+        <v>0.11298961226864773</v>
       </c>
       <c r="E42" s="0">
-        <v>2.2699331499861013</v>
+        <v>2.2728850804294969</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>38443</v>
       </c>
       <c r="B43" s="0">
         <v>2.0345878601074219</v>
       </c>
       <c r="C43" s="0">
-        <v>0.23104998180996905</v>
+        <v>0.232875215432847</v>
       </c>
       <c r="D43" s="0">
-        <v>0.11550304146875687</v>
+        <v>0.11463303486518486</v>
       </c>
       <c r="E43" s="0">
-        <v>2.0695786251180408</v>
+        <v>2.0691264719360962</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>38534</v>
       </c>
       <c r="B44" s="0">
         <v>1.9240521192550659</v>
       </c>
       <c r="C44" s="0">
-        <v>0.22890349694729006</v>
+        <v>0.23262902793681178</v>
       </c>
       <c r="D44" s="0">
-        <v>0.1168302076383505</v>
+        <v>0.11518053913481141</v>
       </c>
       <c r="E44" s="0">
-        <v>1.988905336543306</v>
+        <v>1.9900621440063604</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>38626</v>
       </c>
       <c r="B45" s="0">
         <v>2.1148021221160889</v>
       </c>
       <c r="C45" s="0">
-        <v>0.23059432283934322</v>
+        <v>0.23404035559987696</v>
       </c>
       <c r="D45" s="0">
-        <v>0.11773358380542689</v>
+        <v>0.11627524147754612</v>
       </c>
       <c r="E45" s="0">
-        <v>2.1134375825374354</v>
+        <v>2.1106380567623848</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>38718</v>
       </c>
       <c r="B46" s="0">
         <v>2.0989489555358891</v>
       </c>
       <c r="C46" s="0">
-        <v>0.23339345901999681</v>
+        <v>0.23580397513562723</v>
       </c>
       <c r="D46" s="0">
-        <v>0.11983072691376626</v>
+        <v>0.11760709616128324</v>
       </c>
       <c r="E46" s="0">
-        <v>2.1879649695263192</v>
+        <v>2.1891609428859922</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>38808</v>
       </c>
       <c r="B47" s="0">
         <v>2.642067670822144</v>
       </c>
       <c r="C47" s="0">
-        <v>0.23843546466038729</v>
+        <v>0.24035926087224208</v>
       </c>
       <c r="D47" s="0">
-        <v>0.12007402920294194</v>
+        <v>0.1180898880116423</v>
       </c>
       <c r="E47" s="0">
-        <v>2.5840920801157243</v>
+        <v>2.5827993256560733</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>38899</v>
       </c>
       <c r="B48" s="0">
         <v>2.930945873260498</v>
       </c>
       <c r="C48" s="0">
-        <v>0.23748314219718356</v>
+        <v>0.23887732792441968</v>
       </c>
       <c r="D48" s="0">
-        <v>0.12089503141572676</v>
+        <v>0.11853453174667306</v>
       </c>
       <c r="E48" s="0">
-        <v>2.8049796112888932</v>
+        <v>2.8097853073980437</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>38991</v>
       </c>
       <c r="B49" s="0">
         <v>2.61341381072998</v>
       </c>
       <c r="C49" s="0">
-        <v>0.23629377008414471</v>
+        <v>0.2369725118034452</v>
       </c>
       <c r="D49" s="0">
-        <v>0.12004563397785351</v>
+        <v>0.11820416516525792</v>
       </c>
       <c r="E49" s="0">
-        <v>2.615614444658604</v>
+        <v>2.6116044732929073</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>39083</v>
       </c>
       <c r="B50" s="0">
         <v>2.50513768196106</v>
       </c>
       <c r="C50" s="0">
-        <v>0.23373385483554387</v>
+        <v>0.23321614322594678</v>
       </c>
       <c r="D50" s="0">
-        <v>0.11965148145946825</v>
+        <v>0.11841985563301147</v>
       </c>
       <c r="E50" s="0">
-        <v>2.4763463334468176</v>
+        <v>2.4794107550718509</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>39173</v>
       </c>
       <c r="B51" s="0">
         <v>2.1816437244415279</v>
       </c>
       <c r="C51" s="0">
-        <v>0.23295207480923641</v>
+        <v>0.23162370431522922</v>
       </c>
       <c r="D51" s="0">
-        <v>0.12068414748806651</v>
+        <v>0.11796248692335114</v>
       </c>
       <c r="E51" s="0">
-        <v>2.2429495635498791</v>
+        <v>2.2395670462446695</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>39264</v>
       </c>
       <c r="B52" s="0">
         <v>2.1013531684875488</v>
       </c>
       <c r="C52" s="0">
-        <v>0.22974399943506296</v>
+        <v>0.22836402992624177</v>
       </c>
       <c r="D52" s="0">
-        <v>0.12146781917167412</v>
+        <v>0.11787471141257078</v>
       </c>
       <c r="E52" s="0">
-        <v>2.1827775621330541</v>
+        <v>2.1834200856662775</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>39356</v>
       </c>
       <c r="B53" s="0">
         <v>2.4353642463684082</v>
       </c>
       <c r="C53" s="0">
-        <v>0.22831322872015261</v>
+        <v>0.22632791930322288</v>
       </c>
       <c r="D53" s="0">
-        <v>0.12082081174503548</v>
+        <v>0.11850498806592791</v>
       </c>
       <c r="E53" s="0">
-        <v>2.3766277782101906</v>
+        <v>2.3764522481938282</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>39448</v>
       </c>
       <c r="B54" s="0">
         <v>2.3885238170623779</v>
       </c>
       <c r="C54" s="0">
-        <v>0.2265329641558449</v>
+        <v>0.22435953239971784</v>
       </c>
       <c r="D54" s="0">
-        <v>0.12196751532428193</v>
+        <v>0.11848016786712007</v>
       </c>
       <c r="E54" s="0">
-        <v>2.3765510669990921</v>
+        <v>2.3787369150563116</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>39539</v>
       </c>
       <c r="B55" s="0">
         <v>2.391724824905396</v>
       </c>
       <c r="C55" s="0">
-        <v>0.22801250040455567</v>
+        <v>0.22636421921743521</v>
       </c>
       <c r="D55" s="0">
-        <v>0.12258227627496684</v>
+        <v>0.11924335550598432</v>
       </c>
       <c r="E55" s="0">
-        <v>2.3674218532423565</v>
+        <v>2.3694737542820619</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>39630</v>
       </c>
       <c r="B56" s="0">
         <v>2.4386191368103032</v>
       </c>
       <c r="C56" s="0">
-        <v>0.22978283400812965</v>
+        <v>0.22936673772867372</v>
       </c>
       <c r="D56" s="0">
-        <v>0.12358494663574304</v>
+        <v>0.12049745094337043</v>
       </c>
       <c r="E56" s="0">
-        <v>2.3187253556604643</v>
+        <v>2.3214049881285868</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>39722</v>
       </c>
       <c r="B57" s="0">
         <v>1.7624614238739009</v>
       </c>
       <c r="C57" s="0">
-        <v>0.23639381482291652</v>
+        <v>0.23565242353560567</v>
       </c>
       <c r="D57" s="0">
-        <v>0.12363601606791032</v>
+        <v>0.12018825266300562</v>
       </c>
       <c r="E57" s="0">
-        <v>1.8724586049498988</v>
+        <v>1.8696432079485839</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>39814</v>
       </c>
       <c r="B58" s="0">
         <v>1.7876167297363279</v>
       </c>
       <c r="C58" s="0">
-        <v>0.23575575130019383</v>
+        <v>0.23507680114041452</v>
       </c>
       <c r="D58" s="0">
-        <v>0.12316401439648245</v>
+        <v>0.11999915150606107</v>
       </c>
       <c r="E58" s="0">
-        <v>1.7913930597766057</v>
+        <v>1.792468480171229</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>39904</v>
       </c>
       <c r="B59" s="0">
         <v>1.7119743824005129</v>
       </c>
       <c r="C59" s="0">
-        <v>0.2395940165385666</v>
+        <v>0.23818059647599221</v>
       </c>
       <c r="D59" s="0">
-        <v>0.12243881283762449</v>
+        <v>0.12090651650043972</v>
       </c>
       <c r="E59" s="0">
-        <v>1.7006044758750511</v>
+        <v>1.7007166862334553</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>39995</v>
       </c>
       <c r="B60" s="0">
         <v>1.4798377752304079</v>
       </c>
       <c r="C60" s="0">
-        <v>0.24092398182387448</v>
+        <v>0.24038941194722008</v>
       </c>
       <c r="D60" s="0">
-        <v>0.12332341063547123</v>
+        <v>0.12109068995416911</v>
       </c>
       <c r="E60" s="0">
-        <v>1.5497967928935052</v>
+        <v>1.5480832142591388</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>40087</v>
       </c>
       <c r="B61" s="0">
         <v>1.823668837547302</v>
       </c>
       <c r="C61" s="0">
-        <v>0.24459671623223428</v>
+        <v>0.24507160041839554</v>
       </c>
       <c r="D61" s="0">
-        <v>0.12375980580291829</v>
+        <v>0.12035668688129574</v>
       </c>
       <c r="E61" s="0">
-        <v>1.6667706705042724</v>
+        <v>1.6710374919543496</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>40179</v>
       </c>
       <c r="B62" s="0">
         <v>1.1592046022415159</v>
       </c>
       <c r="C62" s="0">
-        <v>0.25140785149673095</v>
+        <v>0.25049301636883614</v>
       </c>
       <c r="D62" s="0">
-        <v>0.12150127336682887</v>
+        <v>0.11927253306478344</v>
       </c>
       <c r="E62" s="0">
-        <v>1.2146366494932728</v>
+        <v>1.2112069060128325</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>40269</v>
       </c>
       <c r="B63" s="0">
         <v>0.95019930601119995</v>
       </c>
       <c r="C63" s="0">
-        <v>0.25147051959492395</v>
+        <v>0.25127605379603268</v>
       </c>
       <c r="D63" s="0">
-        <v>0.1205982542292896</v>
+        <v>0.11757560848267784</v>
       </c>
       <c r="E63" s="0">
-        <v>0.98575494198658697</v>
+        <v>0.9802271553053874</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>40360</v>
       </c>
       <c r="B64" s="0">
         <v>0.81438720226287842</v>
       </c>
       <c r="C64" s="0">
-        <v>0.25017481435655575</v>
+        <v>0.24870726838091445</v>
       </c>
       <c r="D64" s="0">
-        <v>0.1193729991892144</v>
+        <v>0.11666100573924307</v>
       </c>
       <c r="E64" s="0">
-        <v>0.84807715527625227</v>
+        <v>0.84535299805407149</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>40452</v>
       </c>
       <c r="B65" s="0">
         <v>0.66189742088317871</v>
       </c>
       <c r="C65" s="0">
-        <v>0.2493374014419239</v>
+        <v>0.24783832630005553</v>
       </c>
       <c r="D65" s="0">
-        <v>0.11894967029457373</v>
+        <v>0.11543039438276284</v>
       </c>
       <c r="E65" s="0">
-        <v>0.79031179297083431</v>
+        <v>0.78138337392159496</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>40544</v>
       </c>
       <c r="B66" s="0">
         <v>1.2097805738449099</v>
       </c>
       <c r="C66" s="0">
-        <v>0.25058046748220075</v>
+        <v>0.25103402281081022</v>
       </c>
       <c r="D66" s="0">
-        <v>0.11649085847766771</v>
+        <v>0.11402201634218995</v>
       </c>
       <c r="E66" s="0">
-        <v>1.2108331620915311</v>
+        <v>1.2101280247924024</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>40634</v>
       </c>
       <c r="B67" s="0">
         <v>1.583680391311646</v>
       </c>
       <c r="C67" s="0">
-        <v>0.24692400156731004</v>
+        <v>0.2482047138322048</v>
       </c>
       <c r="D67" s="0">
-        <v>0.11513544264677769</v>
+        <v>0.11233034275435816</v>
       </c>
       <c r="E67" s="0">
-        <v>1.5846252808717471</v>
+        <v>1.5878603417988137</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>40725</v>
       </c>
       <c r="B68" s="0">
         <v>1.9877216815948491</v>
       </c>
       <c r="C68" s="0">
-        <v>0.23781412460058005</v>
+        <v>0.24029195792724611</v>
       </c>
       <c r="D68" s="0">
-        <v>0.11341655519143191</v>
+        <v>0.11096486884967316</v>
       </c>
       <c r="E68" s="0">
-        <v>1.9536718060342735</v>
+        <v>1.9563194927666201</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>40817</v>
       </c>
       <c r="B69" s="0">
         <v>2.2766609191894531</v>
       </c>
       <c r="C69" s="0">
-        <v>0.22657072513287682</v>
+        <v>0.22665637900058166</v>
       </c>
       <c r="D69" s="0">
-        <v>0.11223961131840346</v>
+        <v>0.11026383376945098</v>
       </c>
       <c r="E69" s="0">
-        <v>2.202325740664044</v>
+        <v>2.203656426088922</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>40909</v>
       </c>
       <c r="B70" s="0">
         <v>2.2483384609222412</v>
       </c>
       <c r="C70" s="0">
-        <v>0.21250537024353672</v>
+        <v>0.21399534949336102</v>
       </c>
       <c r="D70" s="0">
-        <v>0.11090399776543824</v>
+        <v>0.10798646535455367</v>
       </c>
       <c r="E70" s="0">
-        <v>2.2158628090738128</v>
+        <v>2.2172609628486382</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>41000</v>
       </c>
       <c r="B71" s="0">
         <v>2.192283153533936</v>
       </c>
       <c r="C71" s="0">
-        <v>0.20100952805480538</v>
+        <v>0.20390085735989705</v>
       </c>
       <c r="D71" s="0">
-        <v>0.10945293867128603</v>
+        <v>0.10646403904590196</v>
       </c>
       <c r="E71" s="0">
-        <v>2.1523719756183368</v>
+        <v>2.1587529101171352</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>41091</v>
       </c>
       <c r="B72" s="0">
         <v>2.0082435607910161</v>
       </c>
       <c r="C72" s="0">
-        <v>0.19186526964824147</v>
+        <v>0.19545265906084763</v>
       </c>
       <c r="D72" s="0">
-        <v>0.10824522532510031</v>
+        <v>0.10544846198363435</v>
       </c>
       <c r="E72" s="0">
-        <v>2.0154785604473746</v>
+        <v>2.0131638332013253</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>41183</v>
       </c>
       <c r="B73" s="0">
         <v>1.8996976613998411</v>
       </c>
       <c r="C73" s="0">
-        <v>0.18379007649491363</v>
+        <v>0.18752167637140921</v>
       </c>
       <c r="D73" s="0">
-        <v>0.10734879171449394</v>
+        <v>0.10486406128846032</v>
       </c>
       <c r="E73" s="0">
-        <v>1.9127841082219175</v>
+        <v>1.9151352285439203</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>41275</v>
       </c>
       <c r="B74" s="0">
         <v>1.889026284217834</v>
       </c>
       <c r="C74" s="0">
-        <v>0.1762445651109541</v>
+        <v>0.18056298110073543</v>
       </c>
       <c r="D74" s="0">
-        <v>0.10783908017876562</v>
+        <v>0.10450189710976124</v>
       </c>
       <c r="E74" s="0">
-        <v>1.8521096742247796</v>
+        <v>1.8535747491662644</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>41365</v>
       </c>
       <c r="B75" s="0">
         <v>1.62309741973877</v>
       </c>
       <c r="C75" s="0">
-        <v>0.17112426087526839</v>
+        <v>0.17569247757559864</v>
       </c>
       <c r="D75" s="0">
-        <v>0.10753079728490175</v>
+        <v>0.10472649585097157</v>
       </c>
       <c r="E75" s="0">
-        <v>1.7060033674579476</v>
+        <v>1.7051689830658534</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>41456</v>
       </c>
       <c r="B76" s="0">
         <v>1.7519370317459111</v>
       </c>
       <c r="C76" s="0">
-        <v>0.16589744412508584</v>
+        <v>0.17018145080975372</v>
       </c>
       <c r="D76" s="0">
-        <v>0.10665626651509802</v>
+        <v>0.10435274447358231</v>
       </c>
       <c r="E76" s="0">
-        <v>1.7426446338806443</v>
+        <v>1.7366733690066165</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>41548</v>
       </c>
       <c r="B77" s="0">
         <v>1.7408550977706909</v>
       </c>
       <c r="C77" s="0">
-        <v>0.16086554176630652</v>
+        <v>0.16639811724589162</v>
       </c>
       <c r="D77" s="0">
-        <v>0.10674851067522761</v>
+        <v>0.10369174511999837</v>
       </c>
       <c r="E77" s="0">
-        <v>1.7353964810180234</v>
+        <v>1.7332770074763886</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>41640</v>
       </c>
       <c r="B78" s="0">
         <v>1.6456582546234131</v>
       </c>
       <c r="C78" s="0">
-        <v>0.15687136477986613</v>
+        <v>0.16376653765465471</v>
       </c>
       <c r="D78" s="0">
-        <v>0.10714685565503085</v>
+        <v>0.10456646027140357</v>
       </c>
       <c r="E78" s="0">
-        <v>1.7130353439777886</v>
+        <v>1.7102321457291909</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>41730</v>
       </c>
       <c r="B79" s="0">
         <v>1.9228624105453489</v>
       </c>
       <c r="C79" s="0">
-        <v>0.15613036295808425</v>
+        <v>0.16296809973369464</v>
       </c>
       <c r="D79" s="0">
-        <v>0.10802467191331844</v>
+        <v>0.10392318701079584</v>
       </c>
       <c r="E79" s="0">
-        <v>1.8235976310556219</v>
+        <v>1.8266236574417047</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>41821</v>
       </c>
       <c r="B80" s="0">
         <v>1.7409453392028811</v>
       </c>
       <c r="C80" s="0">
-        <v>0.15507696720239311</v>
+        <v>0.16152191944474648</v>
       </c>
       <c r="D80" s="0">
-        <v>0.10772615821683101</v>
+        <v>0.10385983976107974</v>
       </c>
       <c r="E80" s="0">
-        <v>1.7505122245758085</v>
+        <v>1.7488262638131538</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>41913</v>
       </c>
       <c r="B81" s="0">
         <v>1.622418165206909</v>
       </c>
       <c r="C81" s="0">
-        <v>0.1543607466882872</v>
+        <v>0.16107120529800351</v>
       </c>
       <c r="D81" s="0">
-        <v>0.10768932908632803</v>
+        <v>0.10386038558798188</v>
       </c>
       <c r="E81" s="0">
-        <v>1.6876385737307931</v>
+        <v>1.6860751966871794</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>42005</v>
       </c>
       <c r="B82" s="0">
         <v>1.7453798055648799</v>
       </c>
       <c r="C82" s="0">
-        <v>0.15437219496669863</v>
+        <v>0.16057354444459943</v>
       </c>
       <c r="D82" s="0">
-        <v>0.10781723287959225</v>
+        <v>0.10346943009461457</v>
       </c>
       <c r="E82" s="0">
-        <v>1.7519482011882559</v>
+        <v>1.7495127711353751</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>42095</v>
       </c>
       <c r="B83" s="0">
         <v>1.777263283729553</v>
       </c>
       <c r="C83" s="0">
-        <v>0.15444751224264477</v>
+        <v>0.16185269442637518</v>
       </c>
       <c r="D83" s="0">
-        <v>0.10918586237108557</v>
+        <v>0.10430631672385431</v>
       </c>
       <c r="E83" s="0">
-        <v>1.8060494221023</v>
+        <v>1.8039686315802148</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>42186</v>
       </c>
       <c r="B84" s="0">
         <v>1.897095680236816</v>
       </c>
       <c r="C84" s="0">
-        <v>0.15641391464122137</v>
+        <v>0.16396990742428946</v>
       </c>
       <c r="D84" s="0">
-        <v>0.11052264557921457</v>
+        <v>0.10469871559631039</v>
       </c>
       <c r="E84" s="0">
-        <v>1.9146464003677961</v>
+        <v>1.908082258341556</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>42278</v>
       </c>
       <c r="B85" s="0">
         <v>2.071506261825562</v>
       </c>
       <c r="C85" s="0">
-        <v>0.1567141754754485</v>
+        <v>0.16768346252052285</v>
       </c>
       <c r="D85" s="0">
-        <v>0.11155863803273282</v>
+        <v>0.10615108939099246</v>
       </c>
       <c r="E85" s="0">
-        <v>2.0425945671244561</v>
+        <v>2.0471374656223129</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>42370</v>
       </c>
       <c r="B86" s="0">
         <v>2.1424224376678471</v>
       </c>
       <c r="C86" s="0">
-        <v>0.15893678755014001</v>
+        <v>0.17086322035384049</v>
       </c>
       <c r="D86" s="0">
-        <v>0.11365306662441291</v>
+        <v>0.10717768346027393</v>
       </c>
       <c r="E86" s="0">
-        <v>2.1280014696260716</v>
+        <v>2.1322433623338339</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>42461</v>
       </c>
       <c r="B87" s="0">
         <v>2.2622108459472661</v>
       </c>
       <c r="C87" s="0">
-        <v>0.16010669374641817</v>
+        <v>0.17510934924874991</v>
       </c>
       <c r="D87" s="0">
-        <v>0.11627644318710527</v>
+        <v>0.10959190868129531</v>
       </c>
       <c r="E87" s="0">
-        <v>2.2110313896692673</v>
+        <v>2.2196542359196787</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>42552</v>
       </c>
       <c r="B88" s="0">
         <v>2.2711210250854492</v>
       </c>
       <c r="C88" s="0">
-        <v>0.16301894717321741</v>
+        <v>0.17831441191196587</v>
       </c>
       <c r="D88" s="0">
-        <v>0.11987190181758528</v>
+        <v>0.11182870106792081</v>
       </c>
       <c r="E88" s="0">
-        <v>2.2198250434444162</v>
+        <v>2.2313710729116831</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>42644</v>
       </c>
       <c r="B89" s="0">
         <v>2.1971242427825932</v>
       </c>
       <c r="C89" s="0">
-        <v>0.16724790100756617</v>
+        <v>0.18443376241925624</v>
       </c>
       <c r="D89" s="0">
-        <v>0.12434237313714233</v>
+        <v>0.11411956929316752</v>
       </c>
       <c r="E89" s="0">
-        <v>2.1526369745530456</v>
+        <v>2.1668302458879851</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>42736</v>
       </c>
       <c r="B90" s="0">
         <v>2.04584789276123</v>
       </c>
       <c r="C90" s="0">
-        <v>0.17237746240820423</v>
+        <v>0.1918982013884673</v>
       </c>
       <c r="D90" s="0">
-        <v>0.12881094740171783</v>
+        <v>0.1168860115869725</v>
       </c>
       <c r="E90" s="0">
-        <v>2.0156271088331135</v>
+        <v>2.0171988449333593</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>42826</v>
       </c>
       <c r="B91" s="0">
         <v>1.6991230249404909</v>
       </c>
       <c r="C91" s="0">
-        <v>0.17668552421448619</v>
+        <v>0.19961693491809185</v>
       </c>
       <c r="D91" s="0">
-        <v>0.13371148492033247</v>
+        <v>0.11979006283215568</v>
       </c>
       <c r="E91" s="0">
-        <v>1.7975425861301368</v>
+        <v>1.7735771595182457</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>42917</v>
       </c>
       <c r="B92" s="0">
         <v>1.595390319824219</v>
       </c>
       <c r="C92" s="0">
-        <v>0.18060138224182487</v>
+        <v>0.20513448387956507</v>
       </c>
       <c r="D92" s="0">
-        <v>0.13870603605670617</v>
+        <v>0.12293959291159597</v>
       </c>
       <c r="E92" s="0">
-        <v>1.7165925114548082</v>
+        <v>1.6915999201492298</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>43009</v>
       </c>
       <c r="B93" s="0">
         <v>1.770164847373962</v>
       </c>
       <c r="C93" s="0">
-        <v>0.1845427986231144</v>
+        <v>0.21281838442678819</v>
       </c>
       <c r="D93" s="0">
-        <v>0.14261734439481816</v>
+        <v>0.12479360327146405</v>
       </c>
       <c r="E93" s="0">
-        <v>1.8301698029572755</v>
+        <v>1.8211322110867014</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>43101</v>
       </c>
       <c r="B94" s="0">
-        <v>2.0657956600189209</v>
+        <v>2.122782707214355</v>
       </c>
       <c r="C94" s="0">
-        <v>0.18851381653103755</v>
+        <v>0.22080801327269217</v>
       </c>
       <c r="D94" s="0">
-        <v>0.14711622278722042</v>
+        <v>0.12873389313791692</v>
       </c>
       <c r="E94" s="0">
-        <v>2.0295162437951455</v>
+        <v>2.0740903894227039</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>43191</v>
       </c>
       <c r="B95" s="0">
-        <v>2.265379667282104</v>
+        <v>2.2455112934112549</v>
       </c>
       <c r="C95" s="0">
-        <v>0.19143207223860603</v>
+        <v>0.22590978204079334</v>
       </c>
       <c r="D95" s="0">
-        <v>0.15258788981544108</v>
+        <v>0.13141710580689961</v>
       </c>
       <c r="E95" s="0">
-        <v>2.1835768947524077</v>
+        <v>2.191298272819445</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>43282</v>
       </c>
       <c r="B96" s="0">
-        <v>2.2518742084503169</v>
+        <v>2.1976864337921138</v>
       </c>
       <c r="C96" s="0">
-        <v>0.19424090902955371</v>
+        <v>0.23353329723858443</v>
       </c>
       <c r="D96" s="0">
-        <v>0.15813391634965507</v>
+        <v>0.13531730070130199</v>
       </c>
       <c r="E96" s="0">
-        <v>2.2069025759483814</v>
+        <v>2.1940215292352354</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>43374</v>
       </c>
       <c r="B97" s="0">
-        <v>2.1978094577789311</v>
+        <v>2.2485272884368901</v>
       </c>
       <c r="C97" s="0">
-        <v>0.19782465740162331</v>
+        <v>0.24381462234190054</v>
       </c>
       <c r="D97" s="0">
-        <v>0.16555953004814813</v>
+        <v>0.13986331429103049</v>
       </c>
       <c r="E97" s="0">
-        <v>2.1708641292563327</v>
+        <v>2.2105475642491816</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>43466</v>
       </c>
       <c r="B98" s="0">
-        <v>2.0513172149658199</v>
+        <v>2.0548524856567378</v>
       </c>
       <c r="C98" s="0">
-        <v>0.20314190009751312</v>
+        <v>0.25732954256208151</v>
       </c>
       <c r="D98" s="0">
-        <v>0.17550921608585981</v>
+        <v>0.14533704436769557</v>
       </c>
       <c r="E98" s="0">
-        <v>2.1139061390680789</v>
+        <v>2.102625106381228</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>43556</v>
       </c>
       <c r="B99" s="0">
-        <v>2.134792566299438</v>
+        <v>2.121228933334351</v>
       </c>
       <c r="C99" s="0">
-        <v>0.20995697792700319</v>
+        <v>0.27254065946333461</v>
       </c>
       <c r="D99" s="0">
-        <v>0.18558557495991432</v>
+        <v>0.14950123778195645</v>
       </c>
       <c r="E99" s="0">
-        <v>2.1526411378059125</v>
+        <v>2.1420697059064313</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>43647</v>
       </c>
       <c r="B100" s="0">
-        <v>2.3531489372253418</v>
+        <v>2.3443212509155269</v>
       </c>
       <c r="C100" s="0">
-        <v>0.21930151749611179</v>
+        <v>0.29046144691665055</v>
       </c>
       <c r="D100" s="0">
-        <v>0.19952876475911818</v>
+        <v>0.15691925334258683</v>
       </c>
       <c r="E100" s="0">
-        <v>2.2421752578932606</v>
+        <v>2.2827331722104423</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>43739</v>
       </c>
       <c r="B101" s="0">
-        <v>2.2344188690185551</v>
+        <v>2.253693580627441</v>
       </c>
       <c r="C101" s="0">
-        <v>0.23062846206747514</v>
+        <v>0.31386774854630961</v>
       </c>
       <c r="D101" s="0">
-        <v>0.21408578568299175</v>
+        <v>0.1656732126178812</v>
       </c>
       <c r="E101" s="0">
-        <v>2.167736925209085</v>
+        <v>2.21800595737239</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>43831</v>
       </c>
       <c r="B102" s="0">
-        <v>2.1172065734863281</v>
+        <v>2.1232213973999019</v>
       </c>
       <c r="C102" s="0">
-        <v>0.24468453003987095</v>
+        <v>0.34103556862879303</v>
       </c>
       <c r="D102" s="0">
-        <v>0.23237066883560251</v>
+        <v>0.1761593309190034</v>
       </c>
       <c r="E102" s="0">
-        <v>2.0241864901505098</v>
+        <v>2.0429419930242987</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>43922</v>
       </c>
       <c r="B103" s="0">
-        <v>1.195309042930603</v>
+        <v>1.176671504974365</v>
       </c>
       <c r="C103" s="0">
-        <v>0.25941113466374321</v>
+        <v>0.37515646208562103</v>
       </c>
       <c r="D103" s="0">
-        <v>0.25129178812248509</v>
+        <v>0.18614513383641706</v>
       </c>
       <c r="E103" s="0">
-        <v>1.6174061452694182</v>
+        <v>1.383742775276847</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>44013</v>
       </c>
       <c r="B104" s="0">
-        <v>1.724944114685059</v>
+        <v>1.7067223787307739</v>
       </c>
       <c r="C104" s="0">
-        <v>0.26932696075581586</v>
+        <v>0.40299093364483429</v>
       </c>
       <c r="D104" s="0">
-        <v>0.2676802873244763</v>
+        <v>0.19440742149283033</v>
       </c>
       <c r="E104" s="0">
-        <v>1.7647450448330537</v>
+        <v>1.6785152516790707</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2">
+      <c r="A105" s="1">
         <v>44105</v>
       </c>
       <c r="B105" s="0">
-        <v>1.5962867736816411</v>
+        <v>1.6331684589385991</v>
       </c>
       <c r="C105" s="0">
-        <v>0.28223509191538659</v>
+        <v>0.43047019650535789</v>
       </c>
       <c r="D105" s="0">
-        <v>0.28628291485131718</v>
+        <v>0.20415380392229118</v>
       </c>
       <c r="E105" s="0">
-        <v>1.8299562065760004</v>
+        <v>1.7030636689146166</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2">
+      <c r="A106" s="1">
         <v>44197</v>
       </c>
       <c r="B106" s="0">
-        <v>1.660072803497314</v>
+        <v>1.6608651876449581</v>
       </c>
       <c r="C106" s="0">
-        <v>0.29616801566776241</v>
+        <v>0.46740399035873204</v>
       </c>
       <c r="D106" s="0">
-        <v>0.30461832874887196</v>
+        <v>0.21248868328084417</v>
       </c>
       <c r="E106" s="0">
-        <v>2.1417487208663801</v>
+        <v>1.9547123518226794</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>44287</v>
       </c>
       <c r="B107" s="0">
-        <v>4.447394847869873</v>
+        <v>4.4083137512207031</v>
       </c>
       <c r="C107" s="0">
-        <v>0.309974431005969</v>
+        <v>0.50894163364356704</v>
       </c>
       <c r="D107" s="0">
-        <v>0.31468030760207533</v>
+        <v>0.21880412159517007</v>
       </c>
       <c r="E107" s="0">
-        <v>3.3683865849747097</v>
+        <v>4.0757052084730478</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B108" s="0">
+        <v>4.022122859954834</v>
+      </c>
+      <c r="C108" s="0">
+        <v>0.52950074536175451</v>
+      </c>
+      <c r="D108" s="0">
+        <v>0.22133787782415421</v>
+      </c>
+      <c r="E108" s="0">
+        <v>4.1639220213091948</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B109" s="0">
+        <v>5.5226850509643546</v>
+      </c>
+      <c r="C109" s="0">
+        <v>0.55504795452761724</v>
+      </c>
+      <c r="D109" s="0">
+        <v>0.22288690608067296</v>
+      </c>
+      <c r="E109" s="0">
+        <v>5.4362055536131226</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B110" s="0">
+        <v>6.4524168968200684</v>
+      </c>
+      <c r="C110" s="0">
+        <v>0.55996215862483045</v>
+      </c>
+      <c r="D110" s="0">
+        <v>0.22327252772050782</v>
+      </c>
+      <c r="E110" s="0">
+        <v>6.2760326215541591</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B111" s="0">
+        <v>5.8849177360534668</v>
+      </c>
+      <c r="C111" s="0">
+        <v>0.5659433207425455</v>
+      </c>
+      <c r="D111" s="0">
+        <v>0.22481664168508331</v>
+      </c>
+      <c r="E111" s="0">
+        <v>5.9614499926342539</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B112" s="0">
+        <v>6.6429495811462402</v>
+      </c>
+      <c r="C112" s="0">
+        <v>0.56044721166843592</v>
+      </c>
+      <c r="D112" s="0">
+        <v>0.2260272994746485</v>
+      </c>
+      <c r="E112" s="0">
+        <v>6.4697749201301971</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B113" s="0">
+        <v>5.7038559913635254</v>
+      </c>
+      <c r="C113" s="0">
+        <v>0.56151133741282866</v>
+      </c>
+      <c r="D113" s="0">
+        <v>0.22433704039482716</v>
+      </c>
+      <c r="E113" s="0">
+        <v>5.7743686526357827</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B114" s="0">
+        <v>5.6025686264038086</v>
+      </c>
+      <c r="C114" s="0">
+        <v>0.54999510758150516</v>
+      </c>
+      <c r="D114" s="0">
+        <v>0.22278910492229648</v>
+      </c>
+      <c r="E114" s="0">
+        <v>5.6385319227155781</v>
       </c>
     </row>
   </sheetData>
